--- a/KiCad/H_Bridge_BLDC/H_Bridge_BLDC_BOM.xlsx
+++ b/KiCad/H_Bridge_BLDC/H_Bridge_BLDC_BOM.xlsx
@@ -384,7 +384,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$€-413]\ #,##0.00;[RED][$€-413]\ #,##0.00\-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -407,6 +407,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -462,7 +469,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -471,11 +478,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -498,8 +513,8 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41:E41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -515,25 +530,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -547,14 +562,14 @@
       <c r="C2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.51</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <f aca="false">D2*C2</f>
         <v>3.06</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -571,14 +586,14 @@
       <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.76</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <f aca="false">D3*C3</f>
         <v>1.52</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -595,8 +610,8 @@
       <c r="C4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="n">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="n">
         <f aca="false">D4*C4</f>
         <v>0</v>
       </c>
@@ -611,14 +626,14 @@
       <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <f aca="false">D5*C5</f>
         <v>0.8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -635,14 +650,14 @@
       <c r="C6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <f aca="false">D6*C6</f>
         <v>0.6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -659,14 +674,14 @@
       <c r="C7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.31</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <f aca="false">D7*C7</f>
         <v>3.72</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -680,14 +695,14 @@
       <c r="C8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <f aca="false">D8*C8</f>
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -704,14 +719,14 @@
       <c r="C9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.09</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <f aca="false">D9*C9</f>
         <v>0.09</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -728,14 +743,14 @@
       <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.22</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <f aca="false">D10*C10</f>
         <v>0.22</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -752,14 +767,14 @@
       <c r="C11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.09</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <f aca="false">D11*C11</f>
         <v>0.09</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -776,14 +791,14 @@
       <c r="C12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>1.46</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <f aca="false">D12*C12</f>
         <v>1.46</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -800,8 +815,8 @@
       <c r="C13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="n">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="n">
         <f aca="false">D13*C13</f>
         <v>0</v>
       </c>
@@ -819,8 +834,8 @@
       <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="n">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="n">
         <f aca="false">D14*C14</f>
         <v>0</v>
       </c>
@@ -838,8 +853,8 @@
       <c r="C15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="n">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="n">
         <f aca="false">D15*C15</f>
         <v>0</v>
       </c>
@@ -857,8 +872,8 @@
       <c r="C16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="n">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="n">
         <f aca="false">D16*C16</f>
         <v>0</v>
       </c>
@@ -876,8 +891,8 @@
       <c r="C17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="n">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="n">
         <f aca="false">D17*C17</f>
         <v>0</v>
       </c>
@@ -895,8 +910,8 @@
       <c r="C18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="n">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="n">
         <f aca="false">D18*C18</f>
         <v>0</v>
       </c>
@@ -914,8 +929,8 @@
       <c r="C19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="n">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="n">
         <f aca="false">D19*C19</f>
         <v>0</v>
       </c>
@@ -933,8 +948,8 @@
       <c r="C20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="n">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="n">
         <f aca="false">D20*C20</f>
         <v>0</v>
       </c>
@@ -952,8 +967,8 @@
       <c r="C21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="n">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="n">
         <f aca="false">D21*C21</f>
         <v>0</v>
       </c>
@@ -971,14 +986,14 @@
       <c r="C22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="3" t="n">
         <v>0.09</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <f aca="false">D22*C22</f>
         <v>0.45</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -995,14 +1010,14 @@
       <c r="C23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="3" t="n">
         <v>1.11</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <f aca="false">D23*C23</f>
         <v>2.22</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -1019,14 +1034,14 @@
       <c r="C24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="3" t="n">
         <v>0.97</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="3" t="n">
         <f aca="false">D24*C24</f>
         <v>1.94</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -1043,14 +1058,14 @@
       <c r="C25" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="3" t="n">
         <v>0.14</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="3" t="n">
         <f aca="false">D25*C25</f>
         <v>1.26</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -1067,8 +1082,8 @@
       <c r="C26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="n">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="n">
         <f aca="false">D26*C26</f>
         <v>0</v>
       </c>
@@ -1086,8 +1101,8 @@
       <c r="C27" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="n">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="n">
         <f aca="false">D27*C27</f>
         <v>0</v>
       </c>
@@ -1102,8 +1117,8 @@
       <c r="C28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="n">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="n">
         <f aca="false">D28*C28</f>
         <v>0</v>
       </c>
@@ -1121,8 +1136,8 @@
       <c r="C29" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="n">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="n">
         <f aca="false">D29*C29</f>
         <v>0</v>
       </c>
@@ -1140,8 +1155,8 @@
       <c r="C30" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="n">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="n">
         <f aca="false">D30*C30</f>
         <v>0</v>
       </c>
@@ -1156,8 +1171,8 @@
       <c r="C31" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="n">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="n">
         <f aca="false">D31*C31</f>
         <v>0</v>
       </c>
@@ -1175,8 +1190,8 @@
       <c r="C32" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="n">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="n">
         <f aca="false">D32*C32</f>
         <v>0</v>
       </c>
@@ -1194,8 +1209,8 @@
       <c r="C33" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="n">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="n">
         <f aca="false">D33*C33</f>
         <v>0</v>
       </c>
@@ -1210,8 +1225,8 @@
       <c r="C34" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="n">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="n">
         <f aca="false">D34*C34</f>
         <v>0</v>
       </c>
@@ -1226,8 +1241,8 @@
       <c r="C35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="n">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="n">
         <f aca="false">D35*C35</f>
         <v>0</v>
       </c>
@@ -1245,14 +1260,14 @@
       <c r="C36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="3" t="n">
         <v>0.41</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="3" t="n">
         <f aca="false">D36*C36</f>
         <v>0.82</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -1269,14 +1284,14 @@
       <c r="C37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="3" t="n">
         <v>0.54</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="3" t="n">
         <f aca="false">D37*C37</f>
         <v>0.54</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="4" t="s">
         <v>108</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -1293,14 +1308,14 @@
       <c r="C38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="3" t="n">
         <v>1.16</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="3" t="n">
         <f aca="false">D38*C38</f>
         <v>1.16</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>112</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -1317,14 +1332,14 @@
       <c r="C39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="3" t="n">
         <v>0.38</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="3" t="n">
         <f aca="false">D39*C39</f>
         <v>0.76</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -1332,10 +1347,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="5" t="n">
         <f aca="false">SUM(E2:E39)</f>
         <v>22.71</v>
       </c>

--- a/KiCad/H_Bridge_BLDC/H_Bridge_BLDC_BOM.xlsx
+++ b/KiCad/H_Bridge_BLDC/H_Bridge_BLDC_BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="121">
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
@@ -304,10 +304,37 @@
     <t xml:space="preserve">R4,R5,R6,R7</t>
   </si>
   <si>
-    <t xml:space="preserve">R11,R12,R21,R27</t>
+    <t xml:space="preserve">R11,R12</t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,R21,R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k pot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/cbwf3vwj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">R15,R42,R45</t>
@@ -384,7 +411,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$€-413]\ #,##0.00;[RED][$€-413]\ #,##0.00\-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -425,6 +452,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -469,7 +501,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -487,6 +519,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -511,10 +547,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1153,7 +1189,7 @@
         <v>95</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="n">
@@ -1162,30 +1198,32 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>550</v>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>2.04</v>
+      </c>
       <c r="E31" s="3" t="n">
         <f aca="false">D31*C31</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>89</v>
+        <v>4.08</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>47</v>
+        <v>550</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>3</v>
@@ -1201,29 +1239,32 @@
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="n">
         <f aca="false">D33*C33</f>
         <v>0</v>
       </c>
+      <c r="G33" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>330</v>
+        <v>101</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="n">
@@ -1233,126 +1274,142 @@
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="n">
         <f aca="false">D35*C35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="3" t="n">
-        <v>0.41</v>
-      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3" t="n">
         <f aca="false">D36*C36</f>
-        <v>0.82</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C37" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>0.54</v>
+        <v>0.41</v>
       </c>
       <c r="E37" s="3" t="n">
         <f aca="false">D37*C37</f>
-        <v>0.54</v>
+        <v>0.82</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>1.16</v>
+        <v>0.54</v>
       </c>
       <c r="E38" s="3" t="n">
         <f aca="false">D38*C38</f>
-        <v>1.16</v>
+        <v>0.54</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C39" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>0.38</v>
+        <v>1.16</v>
       </c>
       <c r="E39" s="3" t="n">
         <f aca="false">D39*C39</f>
+        <v>1.16</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <f aca="false">D40*C40</f>
         <v>0.76</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="2" t="s">
+      <c r="F40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="5" t="n">
-        <f aca="false">SUM(E2:E39)</f>
-        <v>22.71</v>
+      <c r="E42" s="6" t="n">
+        <f aca="false">SUM(E2:E40)</f>
+        <v>26.79</v>
       </c>
     </row>
   </sheetData>
@@ -1371,10 +1428,11 @@
     <hyperlink ref="F23" r:id="rId12" display="https://www.digikey.nl/short/2m9m2d33  "/>
     <hyperlink ref="F24" r:id="rId13" display="https://www.digikey.nl/short/9vtbmtz2  "/>
     <hyperlink ref="F25" r:id="rId14" display="https://www.digikey.nl/short/t592041t   "/>
-    <hyperlink ref="F36" r:id="rId15" display="https://www.digikey.nl/short/1ztb0tdr  "/>
-    <hyperlink ref="F37" r:id="rId16" display="https://www.digikey.nl/short/7nprw4r0  "/>
-    <hyperlink ref="F38" r:id="rId17" display="https://www.digikey.nl/short/tn9qmjc8  "/>
-    <hyperlink ref="F39" r:id="rId18" display="https://www.digikey.nl/short/b5tb7c4v  "/>
+    <hyperlink ref="F31" r:id="rId15" display="https://www.digikey.nl/short/cbwf3vwj"/>
+    <hyperlink ref="F37" r:id="rId16" display="https://www.digikey.nl/short/1ztb0tdr  "/>
+    <hyperlink ref="F38" r:id="rId17" display="https://www.digikey.nl/short/7nprw4r0  "/>
+    <hyperlink ref="F39" r:id="rId18" display="https://www.digikey.nl/short/tn9qmjc8  "/>
+    <hyperlink ref="F40" r:id="rId19" display="https://www.digikey.nl/short/b5tb7c4v  "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/KiCad/H_Bridge_BLDC/H_Bridge_BLDC_BOM.xlsx
+++ b/KiCad/H_Bridge_BLDC/H_Bridge_BLDC_BOM.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="139">
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Digikey</t>
   </si>
   <si>
+    <t xml:space="preserve">productnr digikey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beschrijving</t>
   </si>
   <si>
@@ -49,7 +52,26 @@
     <t xml:space="preserve">470uF 63V</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/2thtjq03  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/2thtjq03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">399-6658-1-ND</t>
   </si>
   <si>
     <t xml:space="preserve">Polarized capacitor</t>
@@ -61,7 +83,26 @@
     <t xml:space="preserve">1 uF X7R</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/8rv5tqqb </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/8rv5tqqb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">399-4426-ND</t>
   </si>
   <si>
     <t xml:space="preserve">CAP CER 1UF 100V X7R RADIAL</t>
@@ -73,13 +114,54 @@
     <t xml:space="preserve">10n</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/j4578057</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RSBEC2100CK00K</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10,C12,C14,C16</t>
   </si>
   <si>
     <t xml:space="preserve">100n</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/zm4tbz4q  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/zm4tbz4q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">R82EC3100AA70K</t>
   </si>
   <si>
     <t xml:space="preserve">CAP FILM 0.1UF 10% 100VDC RADIAL</t>
@@ -91,7 +173,26 @@
     <t xml:space="preserve">10uF</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/m5j270jv  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/m5j270jv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A758BG106M1EDAE070</t>
   </si>
   <si>
     <t xml:space="preserve">D1,D9,D10,D11,D12,D13,D14,D15,D16,D17,D24,D25</t>
@@ -100,7 +201,26 @@
     <t xml:space="preserve">LED</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/wf490mt8  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/wf490mt8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">EALP05RDHRA0(DGK)</t>
   </si>
   <si>
     <t xml:space="preserve">D2,D3,D4,D5,D6,D7,D20,D21,D22,D23</t>
@@ -109,7 +229,26 @@
     <t xml:space="preserve">1N5408</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/2hbzv2dj  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/2hbzv2dj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4878-1N5408CT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">1000V 3A General Purpose Rectifier Diode, DO-201AD</t>
@@ -121,7 +260,26 @@
     <t xml:space="preserve">1N4007</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/9vjwp2pc  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/9vjwp2pc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4878-1N4007CT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">1000V 1A General Purpose Rectifier Diode, DO-41</t>
@@ -133,7 +291,26 @@
     <t xml:space="preserve">ZY24 24V / 2W</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/zdt4nqp0  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/zdt4nqp0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4878-ZY24CT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">Zener diode</t>
@@ -145,7 +322,26 @@
     <t xml:space="preserve">20V 1N5250B</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/qvt5f300  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/qvt5f300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1N5250B-ND</t>
   </si>
   <si>
     <t xml:space="preserve">Zener 20 V 500 mW ±5% Through-hole DO-35</t>
@@ -157,82 +353,60 @@
     <t xml:space="preserve">SU9VF-07015</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/8qzt38p9  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/8qzt38p9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">399-10737-ND</t>
   </si>
   <si>
     <t xml:space="preserve">1 mH @ 1 kHz 2 Lijn Common Mode Choke Through-hole 700mA DCR 600mOhm</t>
   </si>
   <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DriveCoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HallDec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generic connector, single row, 01x06, script generated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ctrl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hall In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generic connector, single row, 01x05, script generated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hall Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J7,J8,J9,J10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_02x15_Counter_Clockwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generic connector, double row, 02x15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RetPwr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumper, 2-pole, open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP4,JP5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumper_2_Open</t>
+    <t xml:space="preserve">Jumpers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pin header 40p</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/zvwc31bq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">S1012EC-40-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic connector, single row, 01x40</t>
   </si>
   <si>
     <t xml:space="preserve">Q1,Q6,Q7,Q8,Q18</t>
@@ -241,7 +415,26 @@
     <t xml:space="preserve">2N5401</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/hrnt4cb2  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/hrnt4cb2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4878-2N5401CT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">BJT TO-92 150V 600MA PNP 0.625W</t>
@@ -253,7 +446,26 @@
     <t xml:space="preserve">BDW94C</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/2m9m2d33  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/2m9m2d33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">497-7181-5-ND</t>
   </si>
   <si>
     <t xml:space="preserve">12A Ic, 100V Vce, Power Darlington PNP Transistor, TO-220</t>
@@ -265,7 +477,26 @@
     <t xml:space="preserve">BDW93C</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/9vtbmtz2  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/9vtbmtz2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">497-7180-5-ND</t>
   </si>
   <si>
     <t xml:space="preserve">12A Ic, 100V Vce, Power Darlington NPN Transistor, TO-220</t>
@@ -277,7 +508,26 @@
     <t xml:space="preserve">2N5551</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/t592041t   </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/t592041t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4878-2N5551CT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">BJT TO92 160V 600MA NPN 0.625W</t>
@@ -289,6 +539,28 @@
     <t xml:space="preserve">2k2</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/3j3h414n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2KQBK-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">Resistor</t>
   </si>
   <si>
@@ -298,70 +570,235 @@
     <t xml:space="preserve">1k</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/d0hm09ff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0KQBK-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- gemengde waarden --</t>
+  </si>
+  <si>
     <t xml:space="preserve">R3,R8</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/nq9n7ww9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">13-RSF200JB-73-200R-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">R4,R5,R6,R7</t>
   </si>
   <si>
-    <t xml:space="preserve">R11,R12</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/07ctf34h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">13-RSF200JB-73-470R-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11,R12,R21,R27,R18,R19,R24,R25</t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
   </si>
   <si>
-    <t xml:space="preserve">,R21,R27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10k pot</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.digikey.nl/short/cbwf3vwj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/mn4prqm9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0KXBK-ND</t>
   </si>
   <si>
     <t xml:space="preserve">R15,R42,R45</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/hnnm94rz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">560QBK-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">R16,R43,R46</t>
   </si>
   <si>
-    <t xml:space="preserve">R18,R19,R24,R25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10K</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/3jqtn9md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">47QBK-ND</t>
   </si>
   <si>
     <t xml:space="preserve">R20,R22,R26,R29,R31,R33,R35,R37,R39,R44,R47</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/2c5z5vwf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">330QBK-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">R40,R41</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/2zp7zqvb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">68W-2-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">U1,U4</t>
   </si>
   <si>
     <t xml:space="preserve">VO615A</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/1ztb0tdr  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/1ztb0tdr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">VO615A-ND</t>
   </si>
   <si>
     <t xml:space="preserve">DC Optocoupler, Vce 70V, CTR 50-600% @ 5mA, Viso 5000Vrms, DIP4</t>
@@ -373,7 +810,26 @@
     <t xml:space="preserve">L7805CV</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/7nprw4r0  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/7nprw4r0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">497-1443-5-ND</t>
   </si>
   <si>
     <t xml:space="preserve">IC REG LINEAR 5V 1.5A TO220AB</t>
@@ -385,7 +841,26 @@
     <t xml:space="preserve">CD74HC238E</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/tn9qmjc8  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/tn9qmjc8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">296-25983-5-ND</t>
   </si>
   <si>
     <t xml:space="preserve">IC DECODER/DEMUX 1X3:8 16DIP</t>
@@ -397,10 +872,51 @@
     <t xml:space="preserve">LM555xM</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/b5tb7c4v  </t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/short/b5tb7c4v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">296-NE555P-ND</t>
   </si>
   <si>
     <t xml:space="preserve">IC OSC SINGLE TIMER 100KHZ 8-DIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete list on digikey:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://www.digikey.nl/nl/mylists/list/7TT5WNQHLN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -411,12 +927,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$€-413]\ #,##0.00;[RED][$€-413]\ #,##0.00\-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -437,24 +952,10 @@
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -501,7 +1002,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -510,23 +1011,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,899 +1036,886 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="74.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="74.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="60.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="101.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="48.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="101.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <f aca="false">D2*C2</f>
         <v>3.06</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="D3" s="2" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <f aca="false">D3*C3</f>
-        <v>1.52</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>1.66</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="n">
+      <c r="D4" s="2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <f aca="false">D4*C4</f>
-        <v>0</v>
+        <v>0.42</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <f aca="false">D5*C5</f>
         <v>0.8</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <f aca="false">D6*C6</f>
         <v>0.6</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <f aca="false">D7*C7</f>
         <v>3.72</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>26</v>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <f aca="false">D8*C8</f>
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>29</v>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="2" t="n">
         <v>0.09</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="2" t="n">
         <f aca="false">D9*C9</f>
         <v>0.09</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>33</v>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="2" t="n">
         <f aca="false">D10*C10</f>
         <v>0.22</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>37</v>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="2" t="n">
         <v>0.09</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="2" t="n">
         <f aca="false">D11*C11</f>
         <v>0.09</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="2" t="n">
         <v>1.46</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="2" t="n">
         <f aca="false">D12*C12</f>
         <v>1.46</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>45</v>
+      <c r="F12" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="n">
+      <c r="D13" s="2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <f aca="false">D13*C13</f>
-        <v>0</v>
+        <v>0.51</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <f aca="false">D14*C14</f>
-        <v>0</v>
+        <v>0.45</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <f aca="false">D15*C15</f>
-        <v>0</v>
+        <v>2.22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <f aca="false">D16*C16</f>
-        <v>0</v>
+        <v>1.94</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E17" s="2" t="n">
         <f aca="false">D17*C17</f>
-        <v>0</v>
+        <v>1.26</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <f aca="false">D18*C18</f>
-        <v>0</v>
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <f aca="false">D19*C19</f>
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>200</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <f aca="false">D20*C20</f>
-        <v>0</v>
+        <v>0.92</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>470</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <f aca="false">D21*C21</f>
-        <v>0</v>
+        <v>1.68</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E22" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <f aca="false">D22*C22</f>
-        <v>0.45</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>73</v>
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>105</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>560</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="E23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="2" t="n">
         <f aca="false">D23*C23</f>
-        <v>2.22</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>77</v>
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>78</v>
+        <v>107</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="E24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="2" t="n">
         <f aca="false">D24*C24</f>
-        <v>1.94</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>81</v>
+        <v>0.3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>330</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E25" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="2" t="n">
         <f aca="false">D25*C25</f>
-        <v>1.26</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>85</v>
+        <v>1.1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>68</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E26" s="2" t="n">
         <f aca="false">D26*C26</f>
-        <v>0</v>
+        <v>0.84</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E27" s="2" t="n">
         <f aca="false">D27*C27</f>
-        <v>0</v>
+        <v>0.82</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>220</v>
+        <v>122</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <f aca="false">D28*C28</f>
-        <v>0</v>
+        <v>0.54</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>89</v>
+        <v>125</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>470</v>
+        <v>127</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <f aca="false">D29*C29</f>
-        <v>0</v>
+        <v>1.16</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>89</v>
+        <v>130</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="n">
+      <c r="D30" s="2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E30" s="2" t="n">
         <f aca="false">D30*C30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <f aca="false">D31*C31</f>
-        <v>4.08</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>98</v>
+        <v>0.76</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="n">
-        <f aca="false">D32*C32</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="n">
-        <f aca="false">D33*C33</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>89</v>
+      <c r="E32" s="2" t="n">
+        <f aca="false">SUM(E2:E30)</f>
+        <v>31.12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="n">
-        <f aca="false">D34*C34</f>
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="n">
-        <f aca="false">D35*C35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="n">
-        <f aca="false">D36*C36</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <f aca="false">D37*C37</f>
-        <v>0.82</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <f aca="false">D38*C38</f>
-        <v>0.54</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <f aca="false">D39*C39</f>
-        <v>1.16</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <f aca="false">D40*C40</f>
-        <v>0.76</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="6" t="n">
-        <f aca="false">SUM(E2:E40)</f>
-        <v>26.79</v>
-      </c>
-    </row>
+      <c r="A35" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.digikey.nl/short/2thtjq03  "/>
-    <hyperlink ref="F3" r:id="rId2" display="https://www.digikey.nl/short/8rv5tqqb "/>
-    <hyperlink ref="F5" r:id="rId3" display="https://www.digikey.nl/short/zm4tbz4q  "/>
-    <hyperlink ref="F6" r:id="rId4" display="https://www.digikey.nl/short/m5j270jv  "/>
-    <hyperlink ref="F7" r:id="rId5" display="https://www.digikey.nl/short/wf490mt8  "/>
-    <hyperlink ref="F8" r:id="rId6" display="https://www.digikey.nl/short/2hbzv2dj  "/>
-    <hyperlink ref="F9" r:id="rId7" display="https://www.digikey.nl/short/9vjwp2pc  "/>
-    <hyperlink ref="F10" r:id="rId8" display="https://www.digikey.nl/short/zdt4nqp0  "/>
-    <hyperlink ref="F11" r:id="rId9" display="https://www.digikey.nl/short/qvt5f300  "/>
-    <hyperlink ref="F12" r:id="rId10" display="https://www.digikey.nl/short/8qzt38p9  "/>
-    <hyperlink ref="F22" r:id="rId11" display="https://www.digikey.nl/short/hrnt4cb2  "/>
-    <hyperlink ref="F23" r:id="rId12" display="https://www.digikey.nl/short/2m9m2d33  "/>
-    <hyperlink ref="F24" r:id="rId13" display="https://www.digikey.nl/short/9vtbmtz2  "/>
-    <hyperlink ref="F25" r:id="rId14" display="https://www.digikey.nl/short/t592041t   "/>
-    <hyperlink ref="F31" r:id="rId15" display="https://www.digikey.nl/short/cbwf3vwj"/>
-    <hyperlink ref="F37" r:id="rId16" display="https://www.digikey.nl/short/1ztb0tdr  "/>
-    <hyperlink ref="F38" r:id="rId17" display="https://www.digikey.nl/short/7nprw4r0  "/>
-    <hyperlink ref="F39" r:id="rId18" display="https://www.digikey.nl/short/tn9qmjc8  "/>
-    <hyperlink ref="F40" r:id="rId19" display="https://www.digikey.nl/short/b5tb7c4v  "/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.digikey.nl/short/2thtjq03"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://www.digikey.nl/short/8rv5tqqb"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://www.digikey.nl/short/j4578057"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://www.digikey.nl/short/zm4tbz4q"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://www.digikey.nl/short/m5j270jv"/>
+    <hyperlink ref="F7" r:id="rId6" display="https://www.digikey.nl/short/wf490mt8"/>
+    <hyperlink ref="F8" r:id="rId7" display="https://www.digikey.nl/short/2hbzv2dj"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://www.digikey.nl/short/9vjwp2pc"/>
+    <hyperlink ref="F10" r:id="rId9" display="https://www.digikey.nl/short/zdt4nqp0"/>
+    <hyperlink ref="F11" r:id="rId10" display="https://www.digikey.nl/short/qvt5f300"/>
+    <hyperlink ref="F12" r:id="rId11" display="https://www.digikey.nl/short/8qzt38p9"/>
+    <hyperlink ref="F13" r:id="rId12" display="https://www.digikey.nl/short/zvwc31bq"/>
+    <hyperlink ref="F14" r:id="rId13" display="https://www.digikey.nl/short/hrnt4cb2"/>
+    <hyperlink ref="F15" r:id="rId14" display="https://www.digikey.nl/short/2m9m2d33"/>
+    <hyperlink ref="F16" r:id="rId15" display="https://www.digikey.nl/short/9vtbmtz2"/>
+    <hyperlink ref="F17" r:id="rId16" display="https://www.digikey.nl/short/t592041t"/>
+    <hyperlink ref="F18" r:id="rId17" display="https://www.digikey.nl/short/3j3h414n"/>
+    <hyperlink ref="F19" r:id="rId18" display="https://www.digikey.nl/short/d0hm09ff"/>
+    <hyperlink ref="F20" r:id="rId19" display="https://www.digikey.nl/short/nq9n7ww9"/>
+    <hyperlink ref="F21" r:id="rId20" display="https://www.digikey.nl/short/07ctf34h"/>
+    <hyperlink ref="F22" r:id="rId21" display="https://www.digikey.nl/short/mn4prqm9"/>
+    <hyperlink ref="F23" r:id="rId22" display="https://www.digikey.nl/short/hnnm94rz"/>
+    <hyperlink ref="F24" r:id="rId23" display="https://www.digikey.nl/short/3jqtn9md"/>
+    <hyperlink ref="F25" r:id="rId24" display="https://www.digikey.nl/short/2c5z5vwf"/>
+    <hyperlink ref="F26" r:id="rId25" display="https://www.digikey.nl/short/2zp7zqvb"/>
+    <hyperlink ref="F27" r:id="rId26" display="https://www.digikey.nl/short/1ztb0tdr"/>
+    <hyperlink ref="F28" r:id="rId27" display="https://www.digikey.nl/short/7nprw4r0"/>
+    <hyperlink ref="F29" r:id="rId28" display="https://www.digikey.nl/short/tn9qmjc8"/>
+    <hyperlink ref="F30" r:id="rId29" display="https://www.digikey.nl/short/b5tb7c4v"/>
+    <hyperlink ref="A35" r:id="rId30" display="https://www.digikey.nl/nl/mylists/list/7TT5WNQHLN"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>